--- a/Data/national_M2018_BLS.xlsx
+++ b/Data/national_M2018_BLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thewillisgroup-my.sharepoint.com/personal/isoto_talentpath_com/Documents/H1B_and_Technology/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{19E5B7C7-6054-43AC-9172-F4D64D25A911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB23A556-C16B-4720-ADF3-C32682B4B468}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{19E5B7C7-6054-43AC-9172-F4D64D25A911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{38D1EACF-F3FA-4F49-8E47-6C8AE4A300FE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,6 +584,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -747,7 +753,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -761,6 +767,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1144,7 +1153,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T1048576"/>
+      <selection activeCell="A3" sqref="A3:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1274,7 +1283,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1330,7 +1339,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1386,7 +1395,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1442,7 +1451,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1498,7 +1507,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1554,7 +1563,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1610,7 +1619,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1666,7 +1675,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1722,7 +1731,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1778,7 +1787,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1834,7 +1843,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1890,7 +1899,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1946,7 +1955,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2002,7 +2011,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2058,7 +2067,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2114,7 +2123,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2170,7 +2179,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2226,7 +2235,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2282,7 +2291,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2338,7 +2347,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3233,18 +3242,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3267,18 +3276,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3FD3975-85DF-49AC-805D-8270859F84AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD6FF11A-68DE-46D5-B607-7EC98C6C1F00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3FD3975-85DF-49AC-805D-8270859F84AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/national_M2018_BLS.xlsx
+++ b/Data/national_M2018_BLS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thewillisgroup-my.sharepoint.com/personal/isoto_talentpath_com/Documents/H1B_and_Technology/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivvya\OneDrive\H1B_and_Technology\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{19E5B7C7-6054-43AC-9172-F4D64D25A911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{38D1EACF-F3FA-4F49-8E47-6C8AE4A300FE}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{19E5B7C7-6054-43AC-9172-F4D64D25A911}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{047F8179-0871-47A0-A07C-CA483AA6F686}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22095" yWindow="3720" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="national_dl" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,15 @@
   <definedNames>
     <definedName name="_xlnm.Database">national_dl!$A$1:$R$1254</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1153,24 +1161,24 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A22"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="2" customWidth="1"/>
-    <col min="2" max="2" width="55.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" style="4" customWidth="1"/>
-    <col min="9" max="13" width="12.6328125" style="5" customWidth="1"/>
-    <col min="14" max="18" width="12.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="4" customWidth="1"/>
+    <col min="9" max="13" width="12.6640625" style="5" customWidth="1"/>
+    <col min="14" max="18" width="12.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1282,7 +1290,7 @@
         <v>147920</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -1338,7 +1346,7 @@
         <v>147990</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
@@ -1394,7 +1402,7 @@
         <v>183820</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1450,7 +1458,7 @@
         <v>183820</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -1506,7 +1514,7 @@
         <v>145620</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -1562,7 +1570,7 @@
         <v>142220</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -1618,7 +1626,7 @@
         <v>156580</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -1674,7 +1682,7 @@
         <v>159700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
@@ -1730,7 +1738,7 @@
         <v>134630</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
@@ -1786,7 +1794,7 @@
         <v>161290</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>41</v>
       </c>
@@ -1842,7 +1850,7 @@
         <v>166960</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
@@ -1898,7 +1906,7 @@
         <v>124480</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>45</v>
       </c>
@@ -1954,7 +1962,7 @@
         <v>145790</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
@@ -2010,7 +2018,7 @@
         <v>138320</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
@@ -2066,7 +2074,7 @@
         <v>130720</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>51</v>
       </c>
@@ -2122,7 +2130,7 @@
         <v>164280</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
@@ -2178,7 +2186,7 @@
         <v>92150</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>55</v>
       </c>
@@ -2234,7 +2242,7 @@
         <v>84510</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>57</v>
       </c>
@@ -2290,7 +2298,7 @@
         <v>105770</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>59</v>
       </c>
@@ -2346,7 +2354,7 @@
         <v>144820</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>61</v>
       </c>
@@ -2402,7 +2410,7 @@
         <v>144820</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>63</v>
       </c>
@@ -2458,7 +2466,7 @@
         <v>145790</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>65</v>
       </c>
@@ -2514,7 +2522,7 @@
         <v>186110</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -2570,7 +2578,7 @@
         <v>186110</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -2626,7 +2634,7 @@
         <v>160550</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>70</v>
       </c>
@@ -2682,7 +2690,7 @@
         <v>160550</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>71</v>
       </c>
@@ -2738,7 +2746,7 @@
         <v>136250</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>73</v>
       </c>
@@ -2794,7 +2802,7 @@
         <v>136250</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>74</v>
       </c>
@@ -2850,7 +2858,7 @@
         <v>139350</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>76</v>
       </c>
@@ -2906,7 +2914,7 @@
         <v>139350</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>77</v>
       </c>
@@ -2962,7 +2970,7 @@
         <v>147670</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
@@ -3025,6 +3033,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008284AD765DC00468CDB6C7FC9C8B3B5" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e256d79a34532ba5ccb4e22275557b5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b5fb8014-055b-46b0-a878-751513a12609" xmlns:ns4="3bbb715c-848a-4971-9aa6-2621d55eea22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a662233147e2dcbf0fb7f68d699675a3" ns3:_="" ns4:_="">
     <xsd:import namespace="b5fb8014-055b-46b0-a878-751513a12609"/>
@@ -3241,22 +3264,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3FD3975-85DF-49AC-805D-8270859F84AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD6FF11A-68DE-46D5-B607-7EC98C6C1F00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3C07FF4-A708-4991-AA73-715186F4DCA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3273,21 +3298,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD6FF11A-68DE-46D5-B607-7EC98C6C1F00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3FD3975-85DF-49AC-805D-8270859F84AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>